--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3134687.407801623</v>
+        <v>3132435.328090415</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,16 +710,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>77.42639794035922</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851181</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363108005</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3606976213227</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>344.9076181407291</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>148.4348925031071</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>37.67709528776653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>69.13498501319017</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>88.89700561060579</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386346</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>28.75188085812095</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505461</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187894</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242268</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>132.6164309267685</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289887</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187896</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506646</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605717463</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>59.96838802184504</v>
+        <v>101.6969570046984</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>7.613741235234181</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412186</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532365</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>53.07327741456097</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699827</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>46.13809394730973</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883614</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3137.106670368228</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3137.106670368228</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3137.106670368228</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3137.106670368228</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2763.640912107148</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4401,13 +4401,13 @@
         <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>825.351820332246</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199102</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3220873375171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
         <v>809.015235706886</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1938.906022842681</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1569.94350590227</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1211.677807295519</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>825.8895546972749</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>414.9036499076673</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2325.505862906803</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>701.1808689801002</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>770.9527709665616</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>882.8293338103399</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.758282883553</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>846.7957659431409</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>488.5300673363904</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.794755798251</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2718.73186845468</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.963213184566</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.497454923486</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.358122947674</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4993,19 +4993,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>156.3070715944115</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192611</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,19 +5176,19 @@
         <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>849.3843576263199</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>2222.001901828447</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703123</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424054</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5762,40 +5762,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249843</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015067</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191136</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212032</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360831</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138424</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684178</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684178</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192613</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D28" t="n">
-        <v>545.3854261579752</v>
+        <v>363.7369613277368</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989559</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228846</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836027</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556958</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433601</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433601</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454497</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>101.5073107603296</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138424</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683297</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404228</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404228</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580297</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601193</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683297</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397189</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="41">
@@ -7400,25 +7400,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1058.18352155162</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178172</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859356</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735998</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912067</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912067</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>282.1326295060866</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>140.4207983482847</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138424</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397189</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>924.8344286397189</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194326</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>119.8635921600914</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711693</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.206332874401</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.96822242532633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922366</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929555929</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408517</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>86.46557462472413</v>
+        <v>44.73700564187079</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>132.6809716109897</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876204</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903233</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>114.1735436840669</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228616</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.12774237125578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.4596884482296</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>721501.8738540632</v>
+        <v>721501.8738540633</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>721501.8738540632</v>
+        <v>721501.8738540633</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287551</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405244</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405254</v>
@@ -26427,34 +26427,34 @@
         <v>16046.58397189189</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189185</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189188</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189184</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189188</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189188</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
+        <v>16046.58397189192</v>
+      </c>
+      <c r="M4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26479,25 +26479,25 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.881761791</v>
+        <v>-811863.8817617905</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658022</v>
+        <v>516880.8639658024</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658021</v>
+        <v>516880.863965802</v>
       </c>
       <c r="E6" t="n">
-        <v>263671.6991256006</v>
+        <v>263636.9612001652</v>
       </c>
       <c r="F6" t="n">
-        <v>589084.1609329563</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="G6" t="n">
-        <v>589084.1609329566</v>
+        <v>589049.4230075203</v>
       </c>
       <c r="H6" t="n">
-        <v>589084.1609329565</v>
+        <v>589049.4230075207</v>
       </c>
       <c r="I6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075204</v>
       </c>
       <c r="J6" t="n">
-        <v>371552.9585356789</v>
+        <v>371518.2206102432</v>
       </c>
       <c r="K6" t="n">
-        <v>589084.1609329565</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="L6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075203</v>
       </c>
       <c r="M6" t="n">
-        <v>504029.1329974444</v>
+        <v>503994.3950720087</v>
       </c>
       <c r="N6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="O6" t="n">
-        <v>589084.1609329566</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="P6" t="n">
-        <v>589084.1609329565</v>
+        <v>589049.4230075204</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26802,22 +26802,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>126.4915721992609</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754778</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,13 +27585,13 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.4083277101192</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>66.01410751272437</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,25 +27822,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>41.33413282833476</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>180.9075580643283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.8601869457118</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90.93497457133151</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-7.823123045292871e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-1.771624470258956e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.009685979972519e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.001912781995909e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936909</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437245</v>
@@ -31859,10 +31859,10 @@
         <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130949</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982885</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>641.255575077084</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P18" t="n">
-        <v>543.0832917018711</v>
+        <v>195.750236610626</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897648</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642884</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575212</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175647</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263838</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153318</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162532</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082898</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162532</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500027</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.27151141594</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182633</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817545</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.598498625609</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35498,7 +35498,7 @@
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103576</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992801</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707336</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754089</v>
@@ -35732,16 +35732,16 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762701</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P18" t="n">
-        <v>409.1088842875408</v>
+        <v>61.77582919629577</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098906</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782669</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418792</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790292</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319985</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462659</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638454</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462659</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279844</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193492</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.866723838389</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036774</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112787</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
